--- a/声音.xlsx
+++ b/声音.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>声音ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,10 +29,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>02</t>
   </si>
   <si>
@@ -110,6 +106,18 @@
   </si>
   <si>
     <t>激光和语音正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雕像 正确</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -476,100 +484,108 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
